--- a/xlsx/简化字_intext.xlsx
+++ b/xlsx/简化字_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
   <si>
     <t>简化字</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中华人民共和国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_简化字</t>
+    <t>政策_政策_维基百科_简化字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E5%8C%96%E5%AD%97%E6%80%BB%E8%A1%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%AD%86%E5%AD%97</t>
   </si>
   <si>
-    <t>簡筆字</t>
+    <t>简笔字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E5%AD%97_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E5%AD%97</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E4%B8%B9%E6%96%87</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E8%9F%B2%E6%9B%B8</t>
   </si>
   <si>
-    <t>鳥蟲書</t>
+    <t>鸟虫书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E4%B9%A6</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%99%BD%E6%9B%B8</t>
   </si>
   <si>
-    <t>飛白書</t>
+    <t>飞白书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E7%89%88%E5%8D%B0%E5%88%B7</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BF%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>仿宋體</t>
+    <t>仿宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BD%93</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>合體</t>
+    <t>合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E9%AB%94</t>
   </si>
   <si>
-    <t>獨體</t>
+    <t>独体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E9%83%A8%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢字部件</t>
+    <t>汉字部件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E4%BD%93%E5%AD%97</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>隸變</t>
+    <t>隶变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B6%E5%AE%9A</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%90%8C%E6%BA%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字同源詞</t>
+    <t>汉字同源词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%96%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>右文說</t>
+    <t>右文说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BD%A2%E5%BC%82%E4%B9%89%E8%AF%8D</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%97%E6%A8%99%E6%BA%96%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>國字標準字體</t>
+    <t>国字标准字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>新加坡漢字</t>
+    <t>新加坡汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣漢字</t>
+    <t>台湾汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>琉球漢字</t>
+    <t>琉球汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>粵語字</t>
+    <t>粤语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京話</t>
+    <t>南京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%9D%E6%AD%A3%E9%9F%B3%E6%AD%A3%E5%AD%97</t>
@@ -497,25 +497,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%9B%B8%E5%AF%AB%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣客家語書寫推薦用字</t>
+    <t>台湾客家语书写推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩漢字</t>
+    <t>台闽汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣閩南語推薦用字</t>
+    <t>台湾闽南语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E7%94%A8%E8%A9%9E</t>
   </si>
   <si>
-    <t>台灣閩南語用詞</t>
+    <t>台湾闽南语用词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E7%AE%80%E5%8C%96</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96%E7%88%AD%E8%AB%96</t>
   </si>
   <si>
-    <t>漢字簡化爭論</t>
+    <t>汉字简化争论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E7%B0%A1%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>繁簡轉換</t>
+    <t>繁简转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -557,9 +557,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E7%AC%94%E5%AD%97</t>
   </si>
   <si>
-    <t>简笔字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E8%AF%AD%E5%9B%BD%E5%AD%97%E9%97%AE%E9%A2%98</t>
   </si>
   <si>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>舊字體</t>
+    <t>旧字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%AD%97%E4%BD%93</t>
@@ -581,19 +578,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%BC%B5%E6%96%B0%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>擴張新字體</t>
+    <t>扩张新字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>當用漢字</t>
+    <t>当用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>常用漢字</t>
+    <t>常用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E9%9F%B3%E6%B1%89%E5%AD%97%E4%B9%A6%E5%86%99%E8%A7%84%E5%88%99</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E6%BC%A2%E5%AD%97%E5%80%9F%E9%9F%B3</t>
   </si>
   <si>
-    <t>閩南語漢字借音</t>
+    <t>闽南语汉字借音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E5%8F%B7</t>
@@ -641,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>萬葉假名</t>
+    <t>万叶假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%81%87%E5%90%8D</t>
@@ -665,19 +662,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E5%AD%97</t>
@@ -743,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97%E9%9F%B3</t>
   </si>
   <si>
-    <t>朝鮮漢字音</t>
+    <t>朝鲜汉字音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%B6%8A%E8%AF%8D</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢越語</t>
+    <t>古汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E9%9F%B3</t>
@@ -773,31 +770,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢越音</t>
+    <t>汉越音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9F%B3_(%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3)</t>
   </si>
   <si>
-    <t>古音 (日本漢字音)</t>
+    <t>古音 (日本汉字音)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E9%9F%B3</t>
   </si>
   <si>
-    <t>吳音</t>
+    <t>吴音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢音</t>
+    <t>汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>新漢音</t>
+    <t>新汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%9F%B3</t>
@@ -815,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%A3%E7%94%A8%E9%9F%B3</t>
   </si>
   <si>
-    <t>慣用音</t>
+    <t>惯用音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3%E7%9A%84%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>日本漢字音的聲調</t>
+    <t>日本汉字音的声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E8%B6%8A%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>中日韓越統一表意文字</t>
+    <t>中日韩越统一表意文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E8%BE%93%E5%85%A5%E6%8A%80%E6%9C%AF</t>
@@ -851,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E5%88%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>錯別字</t>
+    <t>错别字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%AC%94%E5%BF%98%E5%AD%97</t>
@@ -869,27 +866,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>廢除漢字</t>
+    <t>废除汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>漢字復活</t>
+    <t>汉字复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%AC%8E</t>
   </si>
   <si>
-    <t>字謎</t>
+    <t>字谜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>異體字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%AD%97</t>
   </si>
   <si>
@@ -899,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%89%BF%E5%AD%97</t>
   </si>
   <si>
-    <t>傳承字</t>
+    <t>传承字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國教育部</t>
+    <t>中华民国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%89%B9%E7%AE%80%E4%BD%93%E5%AD%97%E8%A1%A8</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%AD%A3%E9%99%B6</t>
@@ -935,9 +929,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%8C%96%E5%AD%97%E7%B8%BD%E8%A1%A8</t>
   </si>
   <si>
-    <t>簡化字總表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%B1%E7%8E%84%E5%90%8C</t>
   </si>
   <si>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8F%83%E5%B4%B4</t>
   </si>
   <si>
-    <t>海參崴</t>
+    <t>海参崴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2</t>
@@ -995,13 +986,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86%E5%A0%B1</t>
   </si>
   <si>
-    <t>真理報</t>
+    <t>真理报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A</t>
@@ -1025,13 +1016,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%81%94%E6%9E%97</t>
   </si>
   <si>
-    <t>史達林</t>
+    <t>史达林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%96%87%E5%AD%97%E6%94%B9%E9%9D%A9%E7%A0%94%E7%A9%B6%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1055,9 +1046,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%96%87%E5%AD%97%E6%94%B9%E9%9D%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
@@ -1073,19 +1061,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>中國科學院</t>
+    <t>中国科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%89%B9%E7%95%B0%E9%AB%94%E5%AD%97%E6%95%B4%E7%90%86%E8%A1%A8</t>
   </si>
   <si>
-    <t>第一批異體字整理表</t>
+    <t>第一批异体字整理表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E9%83%A8</t>
@@ -1097,13 +1082,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%89%B9%E5%BC%82%E4%BD%93%E5%AD%97%E6%95%B4%E7%90%86%E8%A1%A8</t>
   </si>
   <si>
-    <t>第一批异体字整理表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>正體</t>
+    <t>正体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%97%A5%E6%8A%A5</t>
@@ -1121,19 +1103,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%81%A9%E4%BE%86</t>
   </si>
   <si>
-    <t>周恩來</t>
+    <t>周恩来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>中國共產黨中央委員會</t>
+    <t>中国共产党中央委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7%E9%80%9A%E7%94%A8%E6%BC%A2%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
   </si>
   <si>
-    <t>印刷通用漢字字形表</t>
+    <t>印刷通用汉字字形表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AE%A3%E9%83%A8</t>
@@ -1151,27 +1133,15 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%A6%8F%E7%AF%84%E6%BC%A2%E5%AD%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>通用規範漢字表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>中華人民共和國國務院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E7%8E%84%E5%90%8C</t>
   </si>
   <si>
-    <t>錢玄同</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>中华民国教育部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E8%AF%AD</t>
   </si>
   <si>
@@ -1199,15 +1169,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%9B%B8</t>
   </si>
   <si>
-    <t>六書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E9%9F%B3%E5%AD%97</t>
   </si>
   <si>
@@ -1217,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準漢語</t>
+    <t>现代标准汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
@@ -1229,25 +1193,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E6%9B%B8</t>
   </si>
   <si>
-    <t>草書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%84%8F%E5%AD%97</t>
   </si>
   <si>
-    <t>會意字</t>
+    <t>会意字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>繁體字</t>
+    <t>繁体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%81%B2%E5%AD%97</t>
   </si>
   <si>
-    <t>形聲字</t>
+    <t>形声字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E5%90%8D_(%E6%97%A5%E6%96%87)</t>
@@ -1295,51 +1256,45 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>中國社會科學院</t>
+    <t>中国社会科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%96%AC%E6%9C%A8</t>
   </si>
   <si>
-    <t>胡喬木</t>
+    <t>胡乔木</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E7%AF%84%E5%AD%97</t>
   </si>
   <si>
-    <t>規範字</t>
+    <t>规范字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7%E9%80%9A%E7%94%A8%E6%B1%89%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
   </si>
   <si>
-    <t>印刷通用汉字字形表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E7%B0%A1%E8%BD%89%E6%8F%9B%E4%B8%80%E5%B0%8D%E5%A4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>繁簡轉換一對多列表</t>
+    <t>繁简转换一对多列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%B9%81%E8%BD%89%E6%8F%9B%E4%B8%80%E5%B0%8D%E5%A4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>簡繁轉換一對多列表</t>
+    <t>简繁转换一对多列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%8C%96%E5%AD%97</t>
   </si>
   <si>
-    <t>簡化字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9C%E5%A7%93</t>
   </si>
   <si>
@@ -1379,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%AE%E9%80%82</t>
   </si>
   <si>
-    <t>南宮适</t>
+    <t>南宫适</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8D%AF</t>
@@ -1403,13 +1358,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%80%E6%9C%AE</t>
   </si>
   <si>
-    <t>兀朮</t>
+    <t>兀术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AE%E8%B5%A4</t>
   </si>
   <si>
-    <t>朮赤</t>
+    <t>术赤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E5%A7%93</t>
@@ -1487,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E8%99%9B%E9%81%93%E9%95%B7</t>
   </si>
   <si>
-    <t>沖虛道長</t>
+    <t>冲虚道长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8E%E5%A7%93</t>
@@ -1529,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%A8%93%E5%A4%A2</t>
   </si>
   <si>
-    <t>紅樓夢</t>
+    <t>红楼梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%A7%93</t>
@@ -1541,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E9%99%BD</t>
   </si>
   <si>
-    <t>范陽</t>
+    <t>范阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%B7%E5%A7%93</t>
@@ -1577,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%99%E5%A7%93</t>
   </si>
   <si>
-    <t>余姓</t>
+    <t>馀姓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%A4%E6%9C%A8</t>
@@ -1619,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%B7%9D%E5%B8%82</t>
@@ -1637,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E5%B9%BA</t>
   </si>
   <si>
-    <t>十三幺</t>
+    <t>十三么</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%B5%B7%E7%BB%8F</t>
@@ -1739,13 +1694,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%96%AE%E4%BD%8D%E5%88%B6%E8%A9%9E%E9%A0%AD</t>
   </si>
   <si>
-    <t>國際單位制詞頭</t>
+    <t>国际单位制词头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%90</t>
   </si>
   <si>
-    <t>釐</t>
+    <t>厘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B2%E5%A7%93</t>
@@ -1763,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E8%9F%B2</t>
   </si>
   <si>
-    <t>昆蟲</t>
+    <t>昆虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -1817,15 +1772,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
-    <t>繁體中文</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
@@ -1859,9 +1811,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
   </si>
   <si>
-    <t>中国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
@@ -1919,9 +1868,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96</t>
   </si>
   <si>
-    <t>漢字簡化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E8%BF%85</t>
   </si>
   <si>
@@ -1931,9 +1877,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
@@ -1961,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%9D%E8%A5%BF</t>
   </si>
   <si>
-    <t>陝西</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E6%9C%9D</t>
@@ -1985,19 +1928,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
   </si>
   <si>
-    <t>汉语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%89%BF%E5%AD%97</t>
   </si>
   <si>
-    <t>传承字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>中華民國國語</t>
+    <t>中华民国国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AA%E5%8C%A1</t>
@@ -2009,13 +1946,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%BC%E5%A7%93</t>
   </si>
   <si>
-    <t>於姓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%8A%E6%96%BC%E6%9C%9F</t>
   </si>
   <si>
-    <t>樊於期</t>
+    <t>樊于期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85</t>
@@ -2033,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%85%83%E4%BB%A5%E4%BE%86%E4%BF%97%E5%AD%97%E8%AD%9C</t>
   </si>
   <si>
-    <t>宋元以來俗字譜</t>
+    <t>宋元以来俗字谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B4%E6%96%87</t>
@@ -2045,49 +1979,46 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>學習時報</t>
+    <t>学习时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新民主主義</t>
+    <t>新民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1%E9%81%B8%E9%9B%86</t>
   </si>
   <si>
-    <t>毛澤東選集</t>
+    <t>毛泽东选集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%90%84%E5%9C%B0%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>Template talk-各地漢字</t>
+    <t>Template talk-各地汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩字</t>
+    <t>台闽字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣閩南語推薦用字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣客家語推薦用字</t>
+    <t>台湾客家语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%88%B6%E6%B1%89%E5%AD%97</t>
@@ -5132,7 +5063,7 @@
         <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5158,10 +5089,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5187,10 +5118,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5216,10 +5147,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5245,10 +5176,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5274,10 +5205,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5303,10 +5234,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5332,10 +5263,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5361,10 +5292,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5390,10 +5321,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5419,10 +5350,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5448,10 +5379,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5477,10 +5408,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5506,10 +5437,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5535,10 +5466,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5564,10 +5495,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5593,10 +5524,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5622,10 +5553,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -5651,10 +5582,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5680,10 +5611,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5709,10 +5640,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5738,10 +5669,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5767,10 +5698,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5796,10 +5727,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5825,10 +5756,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5854,10 +5785,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5883,10 +5814,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5912,10 +5843,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5941,10 +5872,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5970,10 +5901,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5999,10 +5930,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6028,10 +5959,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6057,10 +5988,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6086,10 +6017,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6115,10 +6046,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6144,10 +6075,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6173,10 +6104,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6202,10 +6133,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6231,10 +6162,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6260,10 +6191,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6289,10 +6220,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6318,10 +6249,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6347,10 +6278,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6376,10 +6307,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6405,10 +6336,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6434,10 +6365,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6463,10 +6394,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6492,10 +6423,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6521,10 +6452,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6550,10 +6481,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6579,10 +6510,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6608,10 +6539,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6637,10 +6568,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>8</v>
@@ -6666,10 +6597,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6695,10 +6626,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6782,10 +6713,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="G150" t="n">
         <v>30</v>
@@ -6811,10 +6742,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>18</v>
@@ -6840,10 +6771,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6869,10 +6800,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>5</v>
@@ -6898,10 +6829,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6927,10 +6858,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6956,10 +6887,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6985,10 +6916,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7014,10 +6945,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -7043,10 +6974,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="G159" t="n">
         <v>33</v>
@@ -7072,10 +7003,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7101,10 +7032,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7130,10 +7061,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>67</v>
@@ -7159,10 +7090,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7188,10 +7119,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7217,10 +7148,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7246,10 +7177,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7275,10 +7206,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>6</v>
@@ -7304,10 +7235,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7333,10 +7264,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7362,10 +7293,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7391,10 +7322,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7420,10 +7351,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7449,10 +7380,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7478,10 +7409,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7507,10 +7438,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>40</v>
@@ -7536,10 +7467,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>4</v>
@@ -7565,10 +7496,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7594,10 +7525,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7623,10 +7554,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="G179" t="n">
         <v>117</v>
@@ -7652,10 +7583,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>6</v>
@@ -7681,10 +7612,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>9</v>
@@ -7710,10 +7641,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7739,10 +7670,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -7797,10 +7728,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
         <v>9</v>
@@ -7826,10 +7757,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7855,10 +7786,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7884,10 +7815,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7913,10 +7844,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>4</v>
@@ -7942,10 +7873,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7971,10 +7902,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8000,10 +7931,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8029,10 +7960,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>4</v>
@@ -8058,10 +7989,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8087,10 +8018,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -8116,10 +8047,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>130</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8145,10 +8076,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8174,10 +8105,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>130</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8203,10 +8134,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -8232,10 +8163,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8261,10 +8192,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -8290,10 +8221,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>25</v>
@@ -8319,10 +8250,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8348,10 +8279,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8377,10 +8308,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="G205" t="n">
         <v>8</v>
@@ -8406,10 +8337,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>86</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8435,10 +8366,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8464,10 +8395,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -8493,10 +8424,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G209" t="n">
         <v>5</v>
@@ -8522,10 +8453,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>60</v>
       </c>
       <c r="G210" t="n">
         <v>34</v>
@@ -8551,10 +8482,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>60</v>
       </c>
       <c r="G211" t="n">
         <v>14</v>
@@ -8580,10 +8511,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8609,10 +8540,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>10</v>
@@ -8638,10 +8569,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>5</v>
@@ -8667,10 +8598,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8696,10 +8627,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F216" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -8725,10 +8656,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>212</v>
+      </c>
+      <c r="F217" t="s">
         <v>213</v>
-      </c>
-      <c r="F217" t="s">
-        <v>214</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8754,10 +8685,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8783,10 +8714,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G219" t="n">
         <v>27</v>
@@ -8812,10 +8743,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -8841,10 +8772,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8870,10 +8801,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G222" t="n">
         <v>13</v>
@@ -8899,10 +8830,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8957,10 +8888,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8986,10 +8917,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -9015,10 +8946,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -9044,10 +8975,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9073,10 +9004,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9102,10 +9033,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9131,10 +9062,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9160,10 +9091,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
         <v>114</v>
@@ -9189,10 +9120,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9218,10 +9149,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9247,10 +9178,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9276,10 +9207,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9305,10 +9236,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9334,10 +9265,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9363,10 +9294,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9392,10 +9323,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9421,10 +9352,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9450,10 +9381,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9479,10 +9410,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9508,10 +9439,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F244" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9537,10 +9468,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F245" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9566,10 +9497,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9595,10 +9526,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9624,10 +9555,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9653,10 +9584,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F249" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9682,10 +9613,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9711,10 +9642,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9740,10 +9671,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9769,10 +9700,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9798,10 +9729,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9827,10 +9758,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9856,10 +9787,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9885,10 +9816,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9914,10 +9845,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9943,10 +9874,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9972,10 +9903,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10001,10 +9932,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10030,10 +9961,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10059,10 +9990,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10088,10 +10019,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10117,10 +10048,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10146,10 +10077,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10175,10 +10106,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10204,10 +10135,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10233,10 +10164,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10262,10 +10193,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10291,10 +10222,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>4</v>
@@ -10320,10 +10251,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10349,10 +10280,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10378,10 +10309,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10407,10 +10338,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10436,10 +10367,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10465,10 +10396,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10494,10 +10425,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10523,10 +10454,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10552,10 +10483,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10581,10 +10512,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10610,10 +10541,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10639,10 +10570,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10668,10 +10599,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10697,10 +10628,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10726,10 +10657,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10755,10 +10686,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10784,10 +10715,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10813,10 +10744,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10842,10 +10773,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10871,10 +10802,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10900,10 +10831,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10929,10 +10860,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10958,10 +10889,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10987,10 +10918,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11016,10 +10947,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11045,10 +10976,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11074,10 +11005,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11103,10 +11034,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11132,10 +11063,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11161,10 +11092,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11190,10 +11121,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11219,10 +11150,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11248,10 +11179,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G304" t="n">
         <v>4</v>
@@ -11277,10 +11208,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11306,10 +11237,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11335,10 +11266,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11364,10 +11295,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11393,10 +11324,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11451,10 +11382,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G311" t="n">
         <v>3</v>
@@ -11480,10 +11411,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11509,10 +11440,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>184</v>
+      </c>
+      <c r="F313" t="s">
         <v>185</v>
-      </c>
-      <c r="F313" t="s">
-        <v>186</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11538,10 +11469,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11567,10 +11498,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>174</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11596,10 +11527,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -11625,10 +11556,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11654,10 +11585,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11683,10 +11614,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -11712,10 +11643,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="G320" t="n">
         <v>6</v>
@@ -11770,10 +11701,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F322" t="s">
-        <v>614</v>
+        <v>335</v>
       </c>
       <c r="G322" t="n">
         <v>43</v>
@@ -11799,10 +11730,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="F323" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11828,10 +11759,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="F324" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11857,10 +11788,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="F325" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -11886,10 +11817,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="F326" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11915,10 +11846,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="F327" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11944,10 +11875,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>184</v>
+      </c>
+      <c r="F328" t="s">
         <v>185</v>
-      </c>
-      <c r="F328" t="s">
-        <v>186</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11973,10 +11904,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>184</v>
+      </c>
+      <c r="F329" t="s">
         <v>185</v>
-      </c>
-      <c r="F329" t="s">
-        <v>186</v>
       </c>
       <c r="G329" t="n">
         <v>3</v>
@@ -12031,10 +11962,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F331" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12060,10 +11991,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="F332" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12089,10 +12020,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="F333" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12118,10 +12049,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="F334" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12147,10 +12078,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="F335" t="s">
-        <v>634</v>
+        <v>168</v>
       </c>
       <c r="G335" t="n">
         <v>47</v>
@@ -12176,10 +12107,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="F336" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="G336" t="n">
         <v>3</v>
@@ -12205,10 +12136,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="F337" t="s">
-        <v>638</v>
+        <v>339</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12234,10 +12165,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="F338" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12263,10 +12194,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="F339" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12292,10 +12223,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="F340" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12321,10 +12252,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="F341" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12350,10 +12281,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F342" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12379,10 +12310,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="F343" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12408,10 +12339,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="F344" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12437,10 +12368,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="F345" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12466,10 +12397,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="F346" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12495,10 +12426,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F347" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12524,10 +12455,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>16</v>
       </c>
       <c r="G348" t="n">
         <v>9</v>
@@ -12553,10 +12484,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>292</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12582,10 +12513,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="G350" t="n">
         <v>7</v>
@@ -12611,10 +12542,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12640,10 +12571,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>477</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12669,10 +12600,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12698,10 +12629,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="F354" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12727,10 +12658,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="F355" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -12756,10 +12687,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="F356" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12785,10 +12716,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="F357" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -12814,10 +12745,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="F358" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12843,10 +12774,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="F359" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -12872,10 +12803,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="F360" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12901,10 +12832,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="F361" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12930,10 +12861,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="F362" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="G362" t="n">
         <v>10</v>
@@ -13017,10 +12948,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="F365" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13191,10 +13122,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="F371" t="s">
-        <v>688</v>
+        <v>164</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13220,10 +13151,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="F372" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13278,10 +13209,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="F374" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13365,10 +13296,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>220</v>
+      </c>
+      <c r="F377" t="s">
         <v>221</v>
-      </c>
-      <c r="F377" t="s">
-        <v>222</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
